--- a/data/wiley_full_oa_journal_list.xlsx
+++ b/data/wiley_full_oa_journal_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beustace.WILEY\OneDrive - Wiley\Desktop\Wiley 2019\OO and OA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beustace.WILEY\OneDrive - Wiley\January\Wiley 2019\OO and OA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{B9932122-A46E-48A9-9A2F-310A05391770}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1FFB35DF-87B5-4CA0-81D0-08365E9056A1}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B9932122-A46E-48A9-9A2F-310A05391770}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F93E4852-82CB-4E22-A8DB-B7088E87D396}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,9 +527,6 @@
     <t>Precision Radiation Oncology</t>
   </si>
   <si>
-    <t>All APCs waived for all manuscripts submitted from 2016-2018</t>
-  </si>
-  <si>
     <t>Remote Sensing in Ecology and Conservation</t>
   </si>
   <si>
@@ -2128,9 +2125,6 @@
     </r>
   </si>
   <si>
-    <t>Updated: 14 January 2019</t>
-  </si>
-  <si>
     <t>Applied AI Letters</t>
   </si>
   <si>
@@ -2138,6 +2132,12 @@
   </si>
   <si>
     <t>2689-5595</t>
+  </si>
+  <si>
+    <t>All APCs are currently waived for manuscripts submitted to Precision Radiation Oncology</t>
+  </si>
+  <si>
+    <t>Updated: 23 January 2019</t>
   </si>
 </sst>
 </file>
@@ -3447,8 +3447,8 @@
   <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+      <pane ySplit="5" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="21" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="28"/>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="93" t="s">
         <v>2</v>
@@ -3566,13 +3566,13 @@
     </row>
     <row r="6" spans="1:14" ht="90" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>236</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>237</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>10</v>
@@ -3605,7 +3605,7 @@
         <v>1724</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
@@ -3613,10 +3613,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>238</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>239</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>10</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="8" spans="1:14" ht="65.25" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>15</v>
@@ -3693,7 +3693,7 @@
         <v>11</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3701,10 +3701,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>15</v>
@@ -3740,13 +3740,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="C10" s="31" t="s">
         <v>530</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>531</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>35</v>
@@ -3787,10 +3787,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>243</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>244</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>15</v>
@@ -3831,13 +3831,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E12" s="49">
         <v>2000</v>
@@ -3867,21 +3867,21 @@
         <v>11</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45">
       <c r="A13" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>510</v>
-      </c>
       <c r="D13" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E13" s="49">
         <v>1100</v>
@@ -3911,18 +3911,18 @@
         <v>11</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30">
       <c r="A14" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C14" s="31" t="s">
         <v>512</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>513</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>15</v>
@@ -3955,7 +3955,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30.2" customHeight="1">
@@ -3963,10 +3963,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>182</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>21</v>
@@ -3999,18 +3999,18 @@
         <v>11</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45">
       <c r="A16" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>10</v>
@@ -4049,13 +4049,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="D17" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E17" s="52">
         <v>2000</v>
@@ -4085,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="45">
@@ -4093,10 +4093,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>246</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>247</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>19</v>
@@ -4137,10 +4137,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>248</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>249</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>10</v>
@@ -4178,16 +4178,16 @@
     </row>
     <row r="20" spans="1:14" ht="45">
       <c r="A20" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>437</v>
-      </c>
       <c r="C20" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E20" s="49">
         <v>2250</v>
@@ -4217,7 +4217,7 @@
         <v>11</v>
       </c>
       <c r="N20" s="57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="45">
@@ -4225,10 +4225,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>186</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>10</v>
@@ -4261,7 +4261,7 @@
         <v>11</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="60">
@@ -4269,10 +4269,10 @@
         <v>29</v>
       </c>
       <c r="B22" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>250</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>251</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>15</v>
@@ -4305,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="150">
@@ -4313,10 +4313,10 @@
         <v>30</v>
       </c>
       <c r="B23" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>252</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>253</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>10</v>
@@ -4349,18 +4349,18 @@
         <v>413</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>616</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>618</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>35</v>
@@ -4399,13 +4399,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>255</v>
-      </c>
       <c r="D25" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>11</v>
@@ -4435,7 +4435,7 @@
         <v>11</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="60">
@@ -4443,10 +4443,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>10</v>
@@ -4479,7 +4479,7 @@
         <v>1587</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30">
@@ -4487,10 +4487,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>259</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>15</v>
@@ -4529,10 +4529,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>261</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>35</v>
@@ -4570,14 +4570,14 @@
     </row>
     <row r="29" spans="1:14" ht="30">
       <c r="A29" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>492</v>
-      </c>
       <c r="D29" s="58" t="s">
         <v>11</v>
       </c>
@@ -4609,18 +4609,18 @@
         <v>11</v>
       </c>
       <c r="N29" s="57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="75">
       <c r="A30" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="C30" s="41" t="s">
         <v>527</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>528</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>10</v>
@@ -4653,7 +4653,7 @@
         <v>11</v>
       </c>
       <c r="N30" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="60">
@@ -4661,10 +4661,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>15</v>
@@ -4697,7 +4697,7 @@
         <v>1868</v>
       </c>
       <c r="N31" s="57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="75">
@@ -4705,10 +4705,10 @@
         <v>39</v>
       </c>
       <c r="B32" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>264</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>265</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>10</v>
@@ -4741,18 +4741,18 @@
         <v>644</v>
       </c>
       <c r="N32" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="45">
       <c r="A33" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="C33" s="31" t="s">
         <v>394</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>395</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>35</v>
@@ -4779,7 +4779,7 @@
       <c r="L33" s="60"/>
       <c r="M33" s="61"/>
       <c r="N33" s="57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30">
@@ -4787,13 +4787,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>267</v>
-      </c>
       <c r="D34" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" s="62">
         <v>2600</v>
@@ -4817,7 +4817,7 @@
       <c r="L34" s="60"/>
       <c r="M34" s="61"/>
       <c r="N34" s="57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="45">
@@ -4828,7 +4828,7 @@
         <v>2011</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>10</v>
@@ -4869,10 +4869,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>15</v>
@@ -4910,16 +4910,16 @@
     </row>
     <row r="37" spans="1:14" ht="90">
       <c r="A37" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>272</v>
-      </c>
       <c r="D37" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E37" s="49">
         <v>2200</v>
@@ -4957,13 +4957,13 @@
         <v>46</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>274</v>
-      </c>
       <c r="D38" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E38" s="49">
         <v>3000</v>
@@ -4993,7 +4993,7 @@
         <v>1667</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="45">
@@ -5001,10 +5001,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>275</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>276</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>10</v>
@@ -5025,7 +5025,7 @@
       <c r="L39" s="60"/>
       <c r="M39" s="61"/>
       <c r="N39" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="75">
@@ -5033,10 +5033,10 @@
         <v>49</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>277</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>278</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>50</v>
@@ -5077,10 +5077,10 @@
         <v>52</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>15</v>
@@ -5101,7 +5101,7 @@
       <c r="L41" s="60"/>
       <c r="M41" s="61"/>
       <c r="N41" s="63" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="90">
@@ -5109,10 +5109,10 @@
         <v>53</v>
       </c>
       <c r="B42" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" s="64" t="s">
         <v>281</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>282</v>
       </c>
       <c r="D42" s="65" t="s">
         <v>15</v>
@@ -5150,16 +5150,16 @@
     </row>
     <row r="43" spans="1:14" ht="60">
       <c r="A43" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B43" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="B43" s="70" t="s">
-        <v>431</v>
-      </c>
       <c r="C43" s="71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E43" s="72">
         <v>1850</v>
@@ -5189,7 +5189,7 @@
         <v>1256</v>
       </c>
       <c r="N43" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="135">
@@ -5197,13 +5197,13 @@
         <v>55</v>
       </c>
       <c r="B44" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="74" t="s">
-        <v>188</v>
-      </c>
       <c r="D44" s="75" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E44" s="49">
         <v>3000</v>
@@ -5233,7 +5233,7 @@
         <v>1667</v>
       </c>
       <c r="N44" s="79" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="75">
@@ -5241,10 +5241,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>283</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>284</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>15</v>
@@ -5285,10 +5285,10 @@
         <v>58</v>
       </c>
       <c r="B46" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>285</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>286</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>19</v>
@@ -5329,10 +5329,10 @@
         <v>60</v>
       </c>
       <c r="B47" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>287</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>288</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>19</v>
@@ -5373,10 +5373,10 @@
         <v>62</v>
       </c>
       <c r="B48" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>290</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>15</v>
@@ -5414,13 +5414,13 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>433</v>
-      </c>
       <c r="C49" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>15</v>
@@ -5459,13 +5459,13 @@
         <v>64</v>
       </c>
       <c r="B50" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>292</v>
-      </c>
       <c r="D50" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E50" s="49">
         <v>1750</v>
@@ -5495,7 +5495,7 @@
         <v>1200</v>
       </c>
       <c r="N50" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="45">
@@ -5503,13 +5503,13 @@
         <v>65</v>
       </c>
       <c r="B51" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>294</v>
-      </c>
       <c r="D51" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E51" s="49">
         <v>2400</v>
@@ -5539,15 +5539,15 @@
         <v>11</v>
       </c>
       <c r="N51" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
+        <v>505</v>
+      </c>
+      <c r="B52" s="80" t="s">
         <v>506</v>
-      </c>
-      <c r="B52" s="80" t="s">
-        <v>507</v>
       </c>
       <c r="C52" s="31"/>
       <c r="D52" s="34" t="s">
@@ -5581,7 +5581,7 @@
         <v>11</v>
       </c>
       <c r="N52" s="63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="105">
@@ -5589,10 +5589,10 @@
         <v>66</v>
       </c>
       <c r="B53" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="D53" s="34" t="s">
         <v>15</v>
@@ -5625,7 +5625,7 @@
         <v>11</v>
       </c>
       <c r="N53" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="120">
@@ -5633,13 +5633,13 @@
         <v>67</v>
       </c>
       <c r="B54" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="D54" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E54" s="49">
         <v>2000</v>
@@ -5669,7 +5669,7 @@
         <v>1368</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30">
@@ -5677,10 +5677,10 @@
         <v>68</v>
       </c>
       <c r="B55" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>299</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>300</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>15</v>
@@ -5718,16 +5718,16 @@
     </row>
     <row r="56" spans="1:14" ht="60">
       <c r="A56" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>435</v>
-      </c>
       <c r="C56" s="80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E56" s="49">
         <v>2500</v>
@@ -5751,7 +5751,7 @@
       <c r="L56" s="60"/>
       <c r="M56" s="61"/>
       <c r="N56" s="57" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="45">
@@ -5759,13 +5759,13 @@
         <v>70</v>
       </c>
       <c r="B57" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>190</v>
-      </c>
       <c r="D57" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E57" s="49">
         <v>1650</v>
@@ -5789,7 +5789,7 @@
       <c r="L57" s="60"/>
       <c r="M57" s="61"/>
       <c r="N57" s="57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="45">
@@ -5797,13 +5797,13 @@
         <v>71</v>
       </c>
       <c r="B58" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>302</v>
-      </c>
       <c r="D58" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E58" s="49">
         <v>2100</v>
@@ -5833,7 +5833,7 @@
         <v>1440</v>
       </c>
       <c r="N58" s="57" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="45">
@@ -5841,10 +5841,10 @@
         <v>72</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="D59" s="34" t="s">
         <v>73</v>
@@ -5885,10 +5885,10 @@
         <v>75</v>
       </c>
       <c r="B60" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>305</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>306</v>
       </c>
       <c r="D60" s="34" t="s">
         <v>10</v>
@@ -5929,10 +5929,10 @@
         <v>77</v>
       </c>
       <c r="B61" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>307</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>308</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>15</v>
@@ -5965,7 +5965,7 @@
         <v>1760</v>
       </c>
       <c r="N61" s="57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="60">
@@ -5973,10 +5973,10 @@
         <v>78</v>
       </c>
       <c r="B62" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>309</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>310</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>15</v>
@@ -6009,7 +6009,7 @@
         <v>11</v>
       </c>
       <c r="N62" s="57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30">
@@ -6017,10 +6017,10 @@
         <v>80</v>
       </c>
       <c r="B63" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>81</v>
@@ -6059,10 +6059,10 @@
         <v>82</v>
       </c>
       <c r="B64" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="31" t="s">
         <v>311</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>312</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>15</v>
@@ -6103,10 +6103,10 @@
         <v>84</v>
       </c>
       <c r="B65" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>313</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>314</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>15</v>
@@ -6147,10 +6147,10 @@
         <v>86</v>
       </c>
       <c r="B66" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>316</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>15</v>
@@ -6183,7 +6183,7 @@
         <v>1760</v>
       </c>
       <c r="N66" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -6191,10 +6191,10 @@
         <v>87</v>
       </c>
       <c r="B67" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>194</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>15</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="68" spans="1:14" ht="30">
       <c r="A68" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="C68" s="31" t="s">
         <v>397</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>398</v>
       </c>
       <c r="D68" s="34" t="s">
         <v>15</v>
@@ -6269,7 +6269,7 @@
         <v>11</v>
       </c>
       <c r="N68" s="63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="45">
@@ -6277,10 +6277,10 @@
         <v>89</v>
       </c>
       <c r="B69" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>317</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>318</v>
       </c>
       <c r="D69" s="34" t="s">
         <v>50</v>
@@ -6313,7 +6313,7 @@
         <v>1332</v>
       </c>
       <c r="N69" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="60">
@@ -6321,13 +6321,13 @@
         <v>90</v>
       </c>
       <c r="B70" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="C70" s="31" t="s">
-        <v>320</v>
-      </c>
       <c r="D70" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E70" s="49">
         <v>1800</v>
@@ -6365,10 +6365,10 @@
         <v>91</v>
       </c>
       <c r="B71" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>322</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>15</v>
@@ -6409,10 +6409,10 @@
         <v>92</v>
       </c>
       <c r="B72" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>323</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>324</v>
       </c>
       <c r="D72" s="34" t="s">
         <v>15</v>
@@ -6451,10 +6451,10 @@
         <v>93</v>
       </c>
       <c r="B73" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>15</v>
@@ -6495,13 +6495,13 @@
         <v>95</v>
       </c>
       <c r="B74" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>196</v>
-      </c>
       <c r="D74" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E74" s="49">
         <v>2200</v>
@@ -6531,7 +6531,7 @@
         <v>1504.8</v>
       </c>
       <c r="N74" s="63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="150">
@@ -6539,13 +6539,13 @@
         <v>97</v>
       </c>
       <c r="B75" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="C75" s="31" t="s">
-        <v>328</v>
-      </c>
       <c r="D75" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E75" s="49">
         <v>2500</v>
@@ -6580,16 +6580,16 @@
     </row>
     <row r="76" spans="1:14" ht="45">
       <c r="A76" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="B76" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>421</v>
-      </c>
       <c r="D76" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E76" s="49">
         <v>3200</v>
@@ -6619,21 +6619,21 @@
         <v>11</v>
       </c>
       <c r="N76" s="63" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="45">
       <c r="A77" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="C77" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="C77" s="31" t="s">
-        <v>406</v>
-      </c>
       <c r="D77" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E77" s="49">
         <v>2500</v>
@@ -6663,7 +6663,7 @@
         <v>11</v>
       </c>
       <c r="N77" s="63" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="90">
@@ -6671,10 +6671,10 @@
         <v>99</v>
       </c>
       <c r="B78" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>330</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>15</v>
@@ -6707,21 +6707,21 @@
         <v>1473</v>
       </c>
       <c r="N78" s="57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="75">
       <c r="A79" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="C79" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="31" t="s">
-        <v>199</v>
-      </c>
       <c r="D79" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E79" s="49">
         <v>1000</v>
@@ -6756,13 +6756,13 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="C80" s="80" t="s">
         <v>474</v>
-      </c>
-      <c r="C80" s="80" t="s">
-        <v>475</v>
       </c>
       <c r="D80" s="84" t="s">
         <v>15</v>
@@ -6801,10 +6801,10 @@
         <v>101</v>
       </c>
       <c r="B81" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C81" s="31" t="s">
         <v>331</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>332</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>15</v>
@@ -6837,18 +6837,18 @@
         <v>2070</v>
       </c>
       <c r="N81" s="57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="45">
       <c r="A82" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C82" s="80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D82" s="84" t="s">
         <v>15</v>
@@ -6881,21 +6881,21 @@
         <v>1218</v>
       </c>
       <c r="N82" s="57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="45">
       <c r="A83" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="C83" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>413</v>
-      </c>
       <c r="D83" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E83" s="49">
         <v>2400</v>
@@ -6931,13 +6931,13 @@
         <v>102</v>
       </c>
       <c r="B84" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>334</v>
-      </c>
       <c r="D84" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E84" s="49">
         <v>1500</v>
@@ -6967,7 +6967,7 @@
         <v>1102</v>
       </c>
       <c r="N84" s="57" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="75">
@@ -6975,10 +6975,10 @@
         <v>103</v>
       </c>
       <c r="B85" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>200</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>201</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>15</v>
@@ -7016,16 +7016,16 @@
     </row>
     <row r="86" spans="1:14" ht="45">
       <c r="A86" s="36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C86" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E86" s="49">
         <v>1875</v>
@@ -7058,16 +7058,16 @@
     </row>
     <row r="87" spans="1:14" ht="45">
       <c r="A87" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B87" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E87" s="49">
         <v>1875</v>
@@ -7103,13 +7103,13 @@
         <v>105</v>
       </c>
       <c r="B88" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>336</v>
-      </c>
       <c r="D88" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E88" s="49">
         <v>2000</v>
@@ -7144,13 +7144,13 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C89" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D89" s="84" t="s">
         <v>35</v>
@@ -7183,21 +7183,21 @@
         <v>11</v>
       </c>
       <c r="N89" s="57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="45">
       <c r="A90" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C90" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>338</v>
-      </c>
       <c r="D90" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E90" s="49">
         <v>2250</v>
@@ -7235,13 +7235,13 @@
         <v>108</v>
       </c>
       <c r="B91" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C91" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="C91" s="31" t="s">
-        <v>340</v>
-      </c>
       <c r="D91" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E91" s="49">
         <v>1800</v>
@@ -7271,7 +7271,7 @@
         <v>11</v>
       </c>
       <c r="N91" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="75">
@@ -7279,10 +7279,10 @@
         <v>109</v>
       </c>
       <c r="B92" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>202</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>203</v>
       </c>
       <c r="D92" s="34" t="s">
         <v>15</v>
@@ -7315,7 +7315,7 @@
         <v>275</v>
       </c>
       <c r="N92" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="45">
@@ -7323,13 +7323,13 @@
         <v>110</v>
       </c>
       <c r="B93" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>342</v>
-      </c>
       <c r="D93" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E93" s="49">
         <v>1540</v>
@@ -7359,7 +7359,7 @@
         <v>11</v>
       </c>
       <c r="N93" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="45">
@@ -7367,13 +7367,13 @@
         <v>111</v>
       </c>
       <c r="B94" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C94" s="31" t="s">
-        <v>344</v>
-      </c>
       <c r="D94" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E94" s="49">
         <v>3250</v>
@@ -7411,10 +7411,10 @@
         <v>113</v>
       </c>
       <c r="B95" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" s="31" t="s">
         <v>345</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="D95" s="34" t="s">
         <v>15</v>
@@ -7455,13 +7455,13 @@
         <v>115</v>
       </c>
       <c r="B96" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="C96" s="31" t="s">
-        <v>348</v>
-      </c>
       <c r="D96" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E96" s="49">
         <v>2000</v>
@@ -7487,10 +7487,10 @@
         <v>116</v>
       </c>
       <c r="B97" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="D97" s="34" t="s">
         <v>23</v>
@@ -7523,7 +7523,7 @@
         <v>864</v>
       </c>
       <c r="N97" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="60">
@@ -7531,10 +7531,10 @@
         <v>118</v>
       </c>
       <c r="B98" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="31" t="s">
         <v>349</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>350</v>
       </c>
       <c r="D98" s="34" t="s">
         <v>10</v>
@@ -7567,7 +7567,7 @@
         <v>729</v>
       </c>
       <c r="N98" s="57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="45">
@@ -7575,13 +7575,13 @@
         <v>119</v>
       </c>
       <c r="B99" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>207</v>
-      </c>
       <c r="D99" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E99" s="49">
         <v>2500</v>
@@ -7616,13 +7616,13 @@
     </row>
     <row r="100" spans="1:14" ht="45">
       <c r="A100" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B100" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="C100" s="31" t="s">
         <v>424</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>425</v>
       </c>
       <c r="D100" s="34" t="s">
         <v>50</v>
@@ -7663,13 +7663,13 @@
         <v>121</v>
       </c>
       <c r="B101" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="C101" s="31" t="s">
-        <v>352</v>
-      </c>
       <c r="D101" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E101" s="49">
         <v>2000</v>
@@ -7707,10 +7707,10 @@
         <v>123</v>
       </c>
       <c r="B102" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C102" s="31" t="s">
         <v>353</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>354</v>
       </c>
       <c r="D102" s="34" t="s">
         <v>50</v>
@@ -7748,16 +7748,16 @@
     </row>
     <row r="103" spans="1:14" ht="45">
       <c r="A103" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D103" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E103" s="49">
         <v>800</v>
@@ -7781,24 +7781,24 @@
         <v>600</v>
       </c>
       <c r="L103" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M103" s="51">
         <v>507.75</v>
       </c>
       <c r="N103" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="45">
       <c r="A104" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B104" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="C104" s="41" t="s">
         <v>501</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>502</v>
       </c>
       <c r="D104" s="34" t="s">
         <v>10</v>
@@ -7831,7 +7831,7 @@
         <v>1530</v>
       </c>
       <c r="N104" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="55.9" customHeight="1">
@@ -7839,10 +7839,10 @@
         <v>125</v>
       </c>
       <c r="B105" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="31" t="s">
         <v>355</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>356</v>
       </c>
       <c r="D105" s="34" t="s">
         <v>126</v>
@@ -7883,10 +7883,10 @@
         <v>128</v>
       </c>
       <c r="B106" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" s="31" t="s">
         <v>357</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>358</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>15</v>
@@ -7927,13 +7927,13 @@
         <v>130</v>
       </c>
       <c r="B107" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="C107" s="31" t="s">
-        <v>360</v>
-      </c>
       <c r="D107" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E107" s="23">
         <v>1804</v>
@@ -7971,10 +7971,10 @@
         <v>132</v>
       </c>
       <c r="B108" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" s="31" t="s">
         <v>361</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>362</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>47</v>
@@ -8007,7 +8007,7 @@
         <v>1252</v>
       </c>
       <c r="N108" s="63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="30">
@@ -8015,10 +8015,10 @@
         <v>133</v>
       </c>
       <c r="B109" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>363</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="D109" s="34" t="s">
         <v>134</v>
@@ -8054,16 +8054,16 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B110" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="C110" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="D110" s="34" t="s">
         <v>409</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>410</v>
       </c>
       <c r="E110" s="49">
         <v>2700</v>
@@ -8093,7 +8093,7 @@
         <v>11</v>
       </c>
       <c r="N110" s="57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="30">
@@ -8101,10 +8101,10 @@
         <v>135</v>
       </c>
       <c r="B111" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>209</v>
       </c>
       <c r="D111" s="34" t="s">
         <v>15</v>
@@ -8137,18 +8137,18 @@
         <v>1565</v>
       </c>
       <c r="N111" s="63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D112" s="34" t="s">
         <v>15</v>
@@ -8186,16 +8186,16 @@
     </row>
     <row r="113" spans="1:14" ht="45">
       <c r="A113" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="B113" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="C113" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="C113" s="31" t="s">
-        <v>419</v>
-      </c>
       <c r="D113" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E113" s="49">
         <v>2500</v>
@@ -8231,10 +8231,10 @@
         <v>136</v>
       </c>
       <c r="B114" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>210</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>211</v>
       </c>
       <c r="D114" s="34" t="s">
         <v>15</v>
@@ -8272,13 +8272,13 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B115" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="C115" s="31" t="s">
         <v>415</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>416</v>
       </c>
       <c r="D115" s="34" t="s">
         <v>15</v>
@@ -8319,13 +8319,13 @@
         <v>138</v>
       </c>
       <c r="B116" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="31" t="s">
-        <v>366</v>
-      </c>
       <c r="D116" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E116" s="49">
         <v>2900</v>
@@ -8363,13 +8363,13 @@
         <v>140</v>
       </c>
       <c r="B117" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="C117" s="31" t="s">
-        <v>368</v>
-      </c>
       <c r="D117" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E117" s="49">
         <v>2900</v>
@@ -8407,13 +8407,13 @@
         <v>141</v>
       </c>
       <c r="B118" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="C118" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="31" t="s">
-        <v>370</v>
-      </c>
       <c r="D118" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E118" s="49">
         <v>2200</v>
@@ -8451,10 +8451,10 @@
         <v>143</v>
       </c>
       <c r="B119" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>213</v>
       </c>
       <c r="D119" s="34" t="s">
         <v>15</v>
@@ -8495,13 +8495,13 @@
         <v>145</v>
       </c>
       <c r="B120" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="C120" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="C120" s="31" t="s">
-        <v>372</v>
-      </c>
       <c r="D120" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E120" s="49">
         <v>2340</v>
@@ -8525,7 +8525,7 @@
         <v>1584</v>
       </c>
       <c r="N120" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -8533,10 +8533,10 @@
         <v>146</v>
       </c>
       <c r="B121" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" s="31" t="s">
         <v>373</v>
-      </c>
-      <c r="C121" s="31" t="s">
-        <v>374</v>
       </c>
       <c r="D121" s="34" t="s">
         <v>15</v>
@@ -8569,21 +8569,21 @@
         <v>11</v>
       </c>
       <c r="N121" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="45">
       <c r="A122" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B122" s="41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C122" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E122" s="49">
         <v>2280</v>
@@ -8613,18 +8613,18 @@
         <v>11</v>
       </c>
       <c r="N122" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="45">
       <c r="A123" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="C123" s="31" t="s">
         <v>400</v>
-      </c>
-      <c r="C123" s="31" t="s">
-        <v>401</v>
       </c>
       <c r="D123" s="34" t="s">
         <v>15</v>
@@ -8657,7 +8657,7 @@
         <v>11</v>
       </c>
       <c r="N123" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="45">
@@ -8665,13 +8665,13 @@
         <v>147</v>
       </c>
       <c r="B124" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C124" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C124" s="31" t="s">
-        <v>376</v>
-      </c>
       <c r="D124" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E124" s="49">
         <v>2100</v>
@@ -8709,13 +8709,13 @@
         <v>149</v>
       </c>
       <c r="B125" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="C125" s="31" t="s">
-        <v>215</v>
-      </c>
       <c r="D125" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E125" s="49">
         <v>2625</v>
@@ -8753,13 +8753,13 @@
         <v>150</v>
       </c>
       <c r="B126" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="C126" s="31" t="s">
-        <v>378</v>
-      </c>
       <c r="D126" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E126" s="49">
         <v>2200</v>
@@ -8777,19 +8777,19 @@
       <c r="L126" s="60"/>
       <c r="M126" s="61"/>
       <c r="N126" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="60">
       <c r="A127" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B127" s="41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C127" s="41"/>
       <c r="D127" s="84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E127" s="49">
         <v>2400</v>
@@ -8807,7 +8807,7 @@
       <c r="L127" s="60"/>
       <c r="M127" s="61"/>
       <c r="N127" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="30">
@@ -8815,10 +8815,10 @@
         <v>151</v>
       </c>
       <c r="B128" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128" s="31" t="s">
         <v>216</v>
-      </c>
-      <c r="C128" s="31" t="s">
-        <v>217</v>
       </c>
       <c r="D128" s="34" t="s">
         <v>15</v>
@@ -8851,7 +8851,7 @@
         <v>1468</v>
       </c>
       <c r="N128" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="75">
@@ -8859,13 +8859,13 @@
         <v>152</v>
       </c>
       <c r="B129" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="C129" s="31" t="s">
-        <v>219</v>
-      </c>
       <c r="D129" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E129" s="49">
         <v>2500</v>
@@ -8895,21 +8895,21 @@
         <v>1643</v>
       </c>
       <c r="N129" s="57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="30">
       <c r="A130" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B130" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D130" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E130" s="49">
         <v>2000</v>
@@ -8945,10 +8945,10 @@
         <v>153</v>
       </c>
       <c r="B131" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C131" s="31" t="s">
         <v>379</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>380</v>
       </c>
       <c r="D131" s="34" t="s">
         <v>15</v>
@@ -8981,7 +8981,7 @@
         <v>11</v>
       </c>
       <c r="N131" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="45">
@@ -8989,13 +8989,13 @@
         <v>154</v>
       </c>
       <c r="B132" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C132" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="C132" s="31" t="s">
-        <v>382</v>
-      </c>
       <c r="D132" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E132" s="49">
         <v>2800</v>
@@ -9025,7 +9025,7 @@
         <v>2340</v>
       </c>
       <c r="N132" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="210">
@@ -9033,13 +9033,13 @@
         <v>155</v>
       </c>
       <c r="B133" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="C133" s="31" t="s">
-        <v>221</v>
-      </c>
       <c r="D133" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E133" s="49">
         <v>2500</v>
@@ -9077,13 +9077,13 @@
         <v>157</v>
       </c>
       <c r="B134" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C134" s="31" t="s">
-        <v>223</v>
-      </c>
       <c r="D134" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E134" s="49">
         <v>2200</v>
@@ -9118,13 +9118,13 @@
     </row>
     <row r="135" spans="1:14" ht="30">
       <c r="A135" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B135" s="41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D135" s="34" t="s">
         <v>15</v>
@@ -9160,13 +9160,13 @@
     </row>
     <row r="136" spans="1:14" ht="30">
       <c r="A136" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B136" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D136" s="34" t="s">
         <v>15</v>
@@ -9199,7 +9199,7 @@
         <v>11</v>
       </c>
       <c r="N136" s="57" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="45">
@@ -9207,13 +9207,13 @@
         <v>159</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D137" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E137" s="49" t="s">
         <v>11</v>
@@ -9243,19 +9243,19 @@
         <v>11</v>
       </c>
       <c r="N137" s="34" t="s">
-        <v>160</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="30">
       <c r="A138" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B138" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C138" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="C138" s="41" t="s">
-        <v>490</v>
-      </c>
       <c r="D138" s="49" t="s">
         <v>11</v>
       </c>
@@ -9287,21 +9287,21 @@
         <v>11</v>
       </c>
       <c r="N138" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="45">
       <c r="A139" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C139" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="C139" s="31" t="s">
-        <v>225</v>
-      </c>
       <c r="D139" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E139" s="49">
         <v>2200</v>
@@ -9334,16 +9334,16 @@
     </row>
     <row r="140" spans="1:14" ht="45">
       <c r="A140" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C140" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C140" s="31" t="s">
-        <v>227</v>
-      </c>
       <c r="D140" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E140" s="49">
         <v>1600</v>
@@ -9373,21 +9373,21 @@
         <v>11</v>
       </c>
       <c r="N140" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="45">
       <c r="A141" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B141" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="C141" s="31" t="s">
-        <v>229</v>
-      </c>
       <c r="D141" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E141" s="49">
         <v>2000</v>
@@ -9417,18 +9417,18 @@
         <v>1353</v>
       </c>
       <c r="N141" s="57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="60">
       <c r="A142" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C142" s="31" t="s">
         <v>384</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>385</v>
       </c>
       <c r="D142" s="34" t="s">
         <v>10</v>
@@ -9461,21 +9461,21 @@
         <v>450</v>
       </c>
       <c r="N142" s="57" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="60">
       <c r="A143" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B143" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="B143" s="31" t="s">
+      <c r="C143" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="C143" s="31" t="s">
-        <v>505</v>
-      </c>
       <c r="D143" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E143" s="49">
         <v>2500</v>
@@ -9505,21 +9505,21 @@
         <v>1100</v>
       </c>
       <c r="N143" s="57" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="45">
       <c r="A144" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="C144" s="31" t="s">
-        <v>231</v>
-      </c>
       <c r="D144" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E144" s="49">
         <v>2200</v>
@@ -9549,21 +9549,21 @@
         <v>11</v>
       </c>
       <c r="N144" s="63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="45">
       <c r="A145" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B145" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="C145" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="C145" s="41" t="s">
-        <v>488</v>
-      </c>
       <c r="D145" s="50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E145" s="50" t="s">
         <v>11</v>
@@ -9593,18 +9593,18 @@
         <v>11</v>
       </c>
       <c r="N145" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" s="31" t="s">
         <v>232</v>
-      </c>
-      <c r="C146" s="31" t="s">
-        <v>233</v>
       </c>
       <c r="D146" s="34" t="s">
         <v>15</v>
@@ -9640,16 +9640,16 @@
     </row>
     <row r="147" spans="1:14" ht="56.45" customHeight="1">
       <c r="A147" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C147" s="31" t="s">
-        <v>235</v>
-      </c>
       <c r="D147" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E147" s="49">
         <v>2000</v>
@@ -9679,21 +9679,21 @@
         <v>11</v>
       </c>
       <c r="N147" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="30">
       <c r="A148" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B148" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="C148" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C148" s="41" t="s">
-        <v>486</v>
-      </c>
       <c r="D148" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E148" s="49" t="s">
         <v>11</v>
@@ -9723,18 +9723,18 @@
         <v>11</v>
       </c>
       <c r="N148" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="45">
       <c r="A149" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B149" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="B149" s="41" t="s">
+      <c r="C149" s="41" t="s">
         <v>515</v>
-      </c>
-      <c r="C149" s="41" t="s">
-        <v>516</v>
       </c>
       <c r="D149" s="49" t="s">
         <v>50</v>
@@ -9767,18 +9767,18 @@
         <v>11</v>
       </c>
       <c r="N149" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="45">
       <c r="A150" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B150" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="B150" s="41" t="s">
+      <c r="C150" s="41" t="s">
         <v>518</v>
-      </c>
-      <c r="C150" s="41" t="s">
-        <v>519</v>
       </c>
       <c r="D150" s="49" t="s">
         <v>50</v>
@@ -9811,19 +9811,19 @@
         <v>11</v>
       </c>
       <c r="N150" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="30">
       <c r="A151" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B151" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="B151" s="41" t="s">
+      <c r="C151" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="C151" s="41" t="s">
-        <v>484</v>
-      </c>
       <c r="D151" s="49" t="s">
         <v>11</v>
       </c>
@@ -9855,21 +9855,21 @@
         <v>11</v>
       </c>
       <c r="N151" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="75">
       <c r="A152" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C152" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="C152" s="31" t="s">
-        <v>387</v>
-      </c>
       <c r="D152" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E152" s="49">
         <v>2420</v>
@@ -9899,18 +9899,18 @@
         <v>11</v>
       </c>
       <c r="N152" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="45">
       <c r="A153" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B153" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" s="31" t="s">
         <v>388</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>389</v>
       </c>
       <c r="D153" s="34" t="s">
         <v>50</v>
@@ -9943,18 +9943,18 @@
         <v>11</v>
       </c>
       <c r="N153" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="45">
       <c r="A154" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B154" s="41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C154" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D154" s="84" t="s">
         <v>15</v>
@@ -9987,18 +9987,18 @@
         <v>1422</v>
       </c>
       <c r="N154" s="69" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="45">
       <c r="A155" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B155" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="B155" s="41" t="s">
+      <c r="C155" s="43" t="s">
         <v>521</v>
-      </c>
-      <c r="C155" s="43" t="s">
-        <v>522</v>
       </c>
       <c r="D155" s="84" t="s">
         <v>50</v>
@@ -10031,18 +10031,18 @@
         <v>11</v>
       </c>
       <c r="N155" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="45">
       <c r="A156" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B156" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="B156" s="80" t="s">
+      <c r="C156" s="43" t="s">
         <v>524</v>
-      </c>
-      <c r="C156" s="43" t="s">
-        <v>525</v>
       </c>
       <c r="D156" s="84" t="s">
         <v>50</v>
@@ -10075,21 +10075,21 @@
         <v>11</v>
       </c>
       <c r="N156" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="60.75" thickBot="1">
       <c r="A157" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B157" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="C157" s="87" t="s">
         <v>390</v>
       </c>
-      <c r="C157" s="87" t="s">
-        <v>391</v>
-      </c>
       <c r="D157" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E157" s="49">
         <v>2400</v>
@@ -10119,7 +10119,7 @@
         <v>11</v>
       </c>
       <c r="N157" s="88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -10139,7 +10139,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="89" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B160" s="89"/>
       <c r="C160" s="89"/>
@@ -10669,16 +10669,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A004712-8FCC-43B4-9D86-3F7B229693A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c42f681e-44cf-46bd-9776-b299b941d15c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="db095f78-f344-4a75-bf9f-d92396dfc36e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c42f681e-44cf-46bd-9776-b299b941d15c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
